--- a/モンスターファンタジア仕様書.xlsx
+++ b/モンスターファンタジア仕様書.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>■コンセプト</t>
     <phoneticPr fontId="1"/>
@@ -163,22 +163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レベルアップ時にバトル画面のステータス表示は変更しなくてOK</t>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面をタップすることでテキストを次に移動させる</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -336,6 +320,127 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベルアップ時にバトル画面のステータス表示は変更しない</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先行が行動しエフェクトが終わり、クリックすることで後攻の行動開始</t>
+    <rPh sb="0" eb="2">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手持ちモンスター最大数は3体</t>
+    <rPh sb="0" eb="2">
+      <t>テモ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先頭のモンスターを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩所はお金を消費させる。一律100G</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーティで行えること</t>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・入れ替え</t>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>探索でバトル画面へ</t>
+    <rPh sb="0" eb="2">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動でマップへ</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -991,45 +1096,29 @@
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>[</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>キュウビ：ほえる</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>]</a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
@@ -1044,7 +1133,33 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>スライムは守備力が下がった</a:t>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>　　 ▼</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -6119,6 +6234,1753 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>63453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="図 82"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2068" t="377" r="1770"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="690563" y="14466094"/>
+          <a:ext cx="2762250" cy="5778453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>559593</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="845344" y="15132844"/>
+          <a:ext cx="2476499" cy="4441031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>173810</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>173720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209529</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>161816</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2245498" y="17854501"/>
+          <a:ext cx="726281" cy="702471"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>411843</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>114188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447562</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>102284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1102406" y="15651844"/>
+          <a:ext cx="726281" cy="702471"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>173810</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>140440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209529</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>128536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2245498" y="16749659"/>
+          <a:ext cx="726281" cy="702471"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>411843</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>173720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447562</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>161816</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1102406" y="17854501"/>
+          <a:ext cx="726281" cy="702471"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>173810</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>114188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209529</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>102284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2245498" y="15651844"/>
+          <a:ext cx="726281" cy="702471"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>411843</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>140440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447562</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>128536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1102406" y="16749659"/>
+          <a:ext cx="726281" cy="702471"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1083469" y="16406813"/>
+          <a:ext cx="833437" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>フィラタウン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>140492</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>283367</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="正方形/長方形 134"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2212180" y="16406813"/>
+          <a:ext cx="833437" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>リュグタウン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>173831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>54769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="正方形/長方形 135"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1083469" y="17497425"/>
+          <a:ext cx="833437" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>チャナタウン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>140492</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>173831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254078</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>54769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="正方形/長方形 136"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2212180" y="17497425"/>
+          <a:ext cx="804148" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>スピアタウン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>422195</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="正方形/長方形 137"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1112758" y="18669001"/>
+          <a:ext cx="804148" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>トキタウン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>140492</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>275097</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="正方形/長方形 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2212180" y="18669001"/>
+          <a:ext cx="825167" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レジェタウン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>63453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="図 139"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2068" t="377" r="1770"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="14466094"/>
+          <a:ext cx="2762250" cy="5778453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>511967</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286251" y="15132844"/>
+          <a:ext cx="2440779" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>255444</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>102392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="正方形/長方形 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4310064" y="18723768"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パーティ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>307183</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395939</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>102392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="正方形/長方形 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5141121" y="18723768"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>休憩所</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>57005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>166833</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="正方形/長方形 142"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438651" y="15237474"/>
+          <a:ext cx="2193130" cy="288422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>フィラタウン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202405</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>83341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426279</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>104809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="図 143"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4345780" y="15799591"/>
+          <a:ext cx="914437" cy="914437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388163</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>35</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>519133</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>59565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="正方形/長方形 144"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5222101" y="15894879"/>
+          <a:ext cx="821532" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>スライム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>411975</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>154814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542945</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="正方形/長方形 145"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245913" y="16049658"/>
+          <a:ext cx="821532" cy="559562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Lv2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>100</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>536432</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>102392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="正方形/長方形 146"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972177" y="18723768"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>探索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>255444</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>173829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="正方形/長方形 147"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4310064" y="19152392"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>配合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>122039</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>439935</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>116682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="正方形/長方形 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5646539" y="15594807"/>
+          <a:ext cx="1008459" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>お金：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1000G</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>307183</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395939</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>173829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="正方形/長方形 149"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5141121" y="19152392"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ボスバトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>536432</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>173829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="正方形/長方形 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972177" y="19152392"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6409,13 +8271,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q55"/>
+  <dimension ref="B2:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.15">
@@ -6446,12 +8310,17 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="Q9" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="Q11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q13" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="17:17" x14ac:dyDescent="0.15">
@@ -6481,37 +8350,77 @@
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
       <c r="G46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.15">
       <c r="G47" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G54" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G55" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G57" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L82" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L84" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L86" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L87" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L89" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L91" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/モンスターファンタジア仕様書.xlsx
+++ b/モンスターファンタジア仕様書.xlsx
@@ -16,31 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>■コンセプト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モンスターを倒す、仲間にする、合体させて強くする、そして〇〇リーダーを倒してチャンピオンを目指す</t>
-    <rPh sb="6" eb="7">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ナカマ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガッタイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>メザ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -337,10 +315,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>先頭のモンスターを表示する</t>
     <rPh sb="0" eb="2">
       <t>セントウ</t>
@@ -451,43 +425,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>進行順：戦闘終了⇒LvUp判定⇒技拾得判定⇒仲間加入選択</t>
-    <rPh sb="0" eb="2">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ワザ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュウトク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ナカマ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カニュウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>交代画面表示中は交代ボタン以外のボタンは押下不可状態</t>
     <rPh sb="0" eb="2">
       <t>コウタイ</t>
@@ -516,6 +453,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>技名押下</t>
+    <rPh sb="0" eb="1">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>技拾得判定</t>
     <rPh sb="0" eb="1">
       <t>ワザ</t>
@@ -529,25 +479,122 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>技名押下</t>
-    <rPh sb="0" eb="1">
-      <t>ワザ</t>
+    <t>交代後</t>
+    <rPh sb="0" eb="2">
+      <t>コウタイ</t>
     </rPh>
-    <rPh sb="1" eb="2">
-      <t>メイ</t>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩所</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定押下後の挙動</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>オウカ</t>
     </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョドウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ver1.3で記述予定</t>
-    <rPh sb="7" eb="9">
-      <t>キジュツ</t>
+    <t>[相手が仲間になる]</t>
+    <rPh sb="1" eb="3">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナカマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲間加入選択へ</t>
+    <rPh sb="0" eb="2">
+      <t>ナカマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[相手が仲間にならない]</t>
+    <rPh sb="1" eb="3">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナカマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体マップ</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[進行順]</t>
+    <rPh sb="1" eb="3">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘終了⇒LvUp判定⇒技拾得判定⇒仲間加入選択⇒マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターを倒す、仲間にする、合体させて強くする、そしてボスを倒してチャンピオンを目指す</t>
+    <rPh sb="6" eb="7">
+      <t>タオ</t>
     </rPh>
     <rPh sb="9" eb="11">
-      <t>ヨテイ</t>
+      <t>ナカマ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガッタイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>メザ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -556,7 +603,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,19 +626,28 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF262626"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF262626"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -608,15 +664,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1212,19 +1274,61 @@
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>[</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>キュウビ：なきごえ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>]</a:t>
+            </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>スライムは攻撃力が下がった</a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -6398,13 +6502,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>63453</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6441,13 +6545,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>559593</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6485,13 +6589,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>173810</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>173720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209529</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>161816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6529,13 +6633,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>411843</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>114188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>447562</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>102284</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6573,13 +6677,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>173810</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>140440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209529</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>128536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6617,13 +6721,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>411843</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>173720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>447562</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>161816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6661,13 +6765,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>173810</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>114188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209529</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>102284</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6705,13 +6809,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>411843</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>140440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>447562</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>128536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6749,13 +6853,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>392906</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>154782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>535781</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>35719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6819,13 +6923,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>140492</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>154782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>283367</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>35719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6889,13 +6993,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>392906</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>173831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>535781</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>54769</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6959,13 +7063,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>140492</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>173831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>254078</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>54769</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7029,13 +7133,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>422195</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>535781</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>154782</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7099,13 +7203,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>140492</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>275097</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>154782</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7169,13 +7273,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>63453</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7212,14 +7316,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>511967</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7256,13 +7360,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>166689</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>255444</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>102392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7336,13 +7440,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>307183</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>395939</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>102392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7416,13 +7520,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>57005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>416718</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>166833</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7496,13 +7600,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>202405</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>83341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>426279</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>104809</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7540,13 +7644,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>388163</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>35</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>519133</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>59565</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7610,13 +7714,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>411974</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>154814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7732,13 +7836,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447677</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>536432</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>102392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7812,13 +7916,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>166689</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>255444</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>173829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7892,13 +7996,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>122039</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>439935</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>116682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7985,13 +8089,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>307183</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>395939</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>173829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8065,13 +8169,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447677</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>536432</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>173829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8145,13 +8249,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>63453</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8188,13 +8292,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>166689</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>255445</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>102392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8268,13 +8372,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>307184</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>395939</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>102392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8348,13 +8452,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>447677</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>536433</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>102392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8428,13 +8532,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>153273</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>130972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511969</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8444,8 +8548,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="843836" y="21562222"/>
-          <a:ext cx="2430383" cy="3405183"/>
+          <a:off x="843836" y="27813003"/>
+          <a:ext cx="2430383" cy="3405184"/>
           <a:chOff x="7404188" y="15704348"/>
           <a:chExt cx="2385142" cy="3098003"/>
         </a:xfrm>
@@ -8641,13 +8745,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>226067</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>111825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>204830</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>50777</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8657,8 +8761,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="916630" y="21543075"/>
-          <a:ext cx="2050450" cy="1189108"/>
+          <a:off x="916630" y="27793856"/>
+          <a:ext cx="2050450" cy="1189109"/>
           <a:chOff x="1033466" y="8397908"/>
           <a:chExt cx="2012281" cy="1081839"/>
         </a:xfrm>
@@ -9088,13 +9192,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>324185</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>171301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>499401</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>87908</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9155,13 +9259,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>363954</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>43982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>461011</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>162541</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9223,13 +9327,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>63453</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9266,13 +9370,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>166689</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>255444</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>102392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9346,13 +9450,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>307183</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>395939</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>102392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9426,13 +9530,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447677</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>536432</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>102392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9506,13 +9610,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>153273</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>130973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>511968</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -9522,8 +9626,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4296648" y="21562223"/>
-          <a:ext cx="2430383" cy="3405183"/>
+          <a:off x="4296648" y="27813004"/>
+          <a:ext cx="2430383" cy="3405184"/>
           <a:chOff x="7404188" y="15704348"/>
           <a:chExt cx="2385142" cy="3098003"/>
         </a:xfrm>
@@ -9719,13 +9823,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>324184</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>171302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>499400</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>87910</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9786,13 +9890,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>363953</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>43983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>461010</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>162542</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9854,13 +9958,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>210049</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>50463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>351934</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>32884</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9930,13 +10034,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>210049</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>155238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>351934</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>137659</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10003,13 +10107,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>210049</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>81420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>351934</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>63841</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10076,13 +10180,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>63453</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10119,13 +10223,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>166689</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>255445</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>102392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10199,13 +10303,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>307184</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>395939</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>102392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10279,13 +10383,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>447677</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>536433</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>102392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10359,13 +10463,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>153273</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>146673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>511969</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10436,13 +10540,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>153273</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>130973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>511969</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>122054</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10512,13 +10616,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>153273</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>149174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>492554</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>140256</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10588,13 +10692,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>324185</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>171302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>499401</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>87910</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10655,13 +10759,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>363954</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>43983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>461011</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>162542</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10723,13 +10827,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>198143</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>57782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>340028</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>25565</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10796,13 +10900,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>198143</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>162557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>340028</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>130340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10869,13 +10973,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>198143</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>88739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>340028</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>56522</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10942,13 +11046,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>155698</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>202977</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>93733</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10958,7 +11062,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="846261" y="22657594"/>
+          <a:off x="846261" y="28908375"/>
           <a:ext cx="2118966" cy="1189108"/>
           <a:chOff x="846261" y="22657594"/>
           <a:chExt cx="2118966" cy="1189108"/>
@@ -11366,13 +11470,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>153273</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>140495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>212503</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>79447</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11382,7 +11486,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="843836" y="23893464"/>
+          <a:off x="843836" y="30144245"/>
           <a:ext cx="2130917" cy="1189108"/>
           <a:chOff x="843836" y="23893464"/>
           <a:chExt cx="2130917" cy="1189108"/>
@@ -11790,13 +11894,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>414177</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>97535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>392939</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>91317</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11806,8 +11910,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4557552" y="21528785"/>
-          <a:ext cx="2050450" cy="1243938"/>
+          <a:off x="4557552" y="27779566"/>
+          <a:ext cx="2050450" cy="1243939"/>
           <a:chOff x="1033466" y="8397908"/>
           <a:chExt cx="2012281" cy="1131723"/>
         </a:xfrm>
@@ -12237,13 +12341,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>343808</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>140493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>391086</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>79445</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -12253,7 +12357,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4487183" y="22643306"/>
+          <a:off x="4487183" y="28894087"/>
           <a:ext cx="2118966" cy="1189108"/>
           <a:chOff x="846261" y="22657594"/>
           <a:chExt cx="2118966" cy="1189108"/>
@@ -12661,13 +12765,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>341383</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>126207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>400612</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>65159</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -12677,7 +12781,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4484758" y="23879176"/>
+          <a:off x="4484758" y="30129957"/>
           <a:ext cx="2130917" cy="1189108"/>
           <a:chOff x="843836" y="23893464"/>
           <a:chExt cx="2130917" cy="1189108"/>
@@ -13085,13 +13189,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>423696</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>142730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>402459</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>81682</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -13101,7 +13205,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8019884" y="23895699"/>
+          <a:off x="8019884" y="30146480"/>
           <a:ext cx="2050450" cy="1189108"/>
           <a:chOff x="1033466" y="8397908"/>
           <a:chExt cx="2012281" cy="1081839"/>
@@ -13509,13 +13613,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>353327</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>126205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>400606</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>65157</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -13525,7 +13629,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7949515" y="22629018"/>
+          <a:off x="7949515" y="28879799"/>
           <a:ext cx="2118966" cy="1189108"/>
           <a:chOff x="846261" y="22657594"/>
           <a:chExt cx="2118966" cy="1189108"/>
@@ -13933,13 +14037,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>350902</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>100062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>410132</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>39014</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -13949,8 +14053,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7947090" y="21531312"/>
-          <a:ext cx="2130917" cy="1189108"/>
+          <a:off x="7947090" y="27782093"/>
+          <a:ext cx="2130917" cy="1189109"/>
           <a:chOff x="843836" y="23893464"/>
           <a:chExt cx="2130917" cy="1189108"/>
         </a:xfrm>
@@ -14380,13 +14484,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>63453</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14423,13 +14527,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>166689</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>255445</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>102393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14503,13 +14607,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>307184</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>395939</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>102393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14583,13 +14687,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>447677</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>536433</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>102393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14663,13 +14767,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>153273</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>130973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511969</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -14679,7 +14783,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="843836" y="28170192"/>
+          <a:off x="843836" y="34420973"/>
           <a:ext cx="2430383" cy="3405183"/>
           <a:chOff x="7404188" y="15704348"/>
           <a:chExt cx="2385142" cy="3098003"/>
@@ -14876,13 +14980,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>324185</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>171302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>499401</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>87910</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14943,13 +15047,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>363954</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>43983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>461011</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>162542</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15011,13 +15115,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254626</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>68961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>233389</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>7913</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -15027,7 +15131,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="945189" y="28108180"/>
+          <a:off x="945189" y="34358961"/>
           <a:ext cx="2050450" cy="1189108"/>
           <a:chOff x="1033466" y="8397908"/>
           <a:chExt cx="2012281" cy="1081839"/>
@@ -15331,13 +15435,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>184257</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>70739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>679455</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>120019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15375,13 +15479,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>564341</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>111918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>20331</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>16465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15455,13 +15559,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>564341</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>55089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>231536</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>21618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15609,13 +15713,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>181832</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>161286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>677030</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>31973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15653,13 +15757,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>573867</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>121443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>29857</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>25991</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15733,13 +15837,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>573867</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>83659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241062</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>166881</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15910,13 +16014,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>63453</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15953,13 +16057,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>166689</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>255444</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>102393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16033,13 +16137,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>307183</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>395939</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>102393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16113,13 +16217,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447677</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>150018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>536432</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>102393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16193,13 +16297,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>153273</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>130973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>511968</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -16209,7 +16313,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4296648" y="28170192"/>
+          <a:off x="4296648" y="34420973"/>
           <a:ext cx="2430383" cy="3405183"/>
           <a:chOff x="7404188" y="15704348"/>
           <a:chExt cx="2385142" cy="3098003"/>
@@ -16406,13 +16510,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>324184</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>171302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>499400</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>87910</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16473,13 +16577,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>363953</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>43983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>461010</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>162542</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16541,13 +16645,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>254626</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>68961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>233388</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>7913</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -16557,7 +16661,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4398001" y="28108180"/>
+          <a:off x="4398001" y="34358961"/>
           <a:ext cx="2050450" cy="1189108"/>
           <a:chOff x="1033466" y="8397908"/>
           <a:chExt cx="2012281" cy="1081839"/>
@@ -16861,13 +16965,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>184257</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>70739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>679454</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>120019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16905,13 +17009,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>564340</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>111918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>20330</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>16465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16985,13 +17089,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>564340</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>55089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>231535</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>21618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17139,13 +17243,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>181832</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>161286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>677029</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>31973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17183,13 +17287,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>573866</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>121443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>29856</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>25991</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17263,13 +17367,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>573866</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>83659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>241061</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>166881</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17440,13 +17544,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>289919</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>222053</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17534,7 +17638,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>魔法型</a:t>
+            <a:t>攻撃型</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
             <a:solidFill>
@@ -17629,6 +17733,4542 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>状態異常などの能力説明を記載する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>63453</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="255" name="グループ化 254"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="690563" y="14287500"/>
+          <a:ext cx="2762250" cy="5778453"/>
+          <a:chOff x="690563" y="1452557"/>
+          <a:chExt cx="2762250" cy="5778453"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="256" name="図 255"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="2068" t="377" r="1770"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="690563" y="1452557"/>
+            <a:ext cx="2762250" cy="5778453"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="257" name="図 256"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="797718" y="1904999"/>
+            <a:ext cx="2536031" cy="2536030"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="258" name="図 257"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="888188" y="3431343"/>
+            <a:ext cx="914437" cy="914437"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="259" name="正方形/長方形 258"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1809750" y="3571873"/>
+            <a:ext cx="821532" cy="238124"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>スライム</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="260" name="正方形/長方形 259"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1809750" y="3714746"/>
+            <a:ext cx="1131094" cy="511967"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Lv</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>HP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>100 / 100</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="261" name="正方形/長方形 260"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="848594" y="5798317"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>タックル　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="262" name="正方形/長方形 261"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="821531" y="4536279"/>
+            <a:ext cx="2500313" cy="1143000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>吸収を覚えそうだ！</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>どの技を忘れますか？</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>　　　　　　　　　　　　　　▼</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="263" name="正方形/長方形 262"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1703462" y="5798317"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ねちょり　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="264" name="正方形/長方形 263"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2558330" y="5798317"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>　　交代</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="265" name="正方形/長方形 264"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="846212" y="6200748"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>なきごえ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>12</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="266" name="正方形/長方形 265"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1701080" y="6200748"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>小型化　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="271" name="正方形/長方形 270"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2555948" y="6200748"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>　　にげる</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>63453</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="272" name="グループ化 271"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4143375" y="7858125"/>
+          <a:ext cx="2762250" cy="5778453"/>
+          <a:chOff x="690563" y="1452557"/>
+          <a:chExt cx="2762250" cy="5778453"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="276" name="図 275"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="2068" t="377" r="1770"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="690563" y="1452557"/>
+            <a:ext cx="2762250" cy="5778453"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="277" name="図 276"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="797718" y="1904999"/>
+            <a:ext cx="2536031" cy="2536030"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="278" name="図 277"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2143118" y="2274092"/>
+            <a:ext cx="1163687" cy="857249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="280" name="正方形/長方形 279"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1309678" y="2369341"/>
+            <a:ext cx="821532" cy="238124"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>キュウビ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="281" name="正方形/長方形 280"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1333490" y="2500311"/>
+            <a:ext cx="928698" cy="511969"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Lv:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>１</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>HP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>80 / 90</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="282" name="正方形/長方形 281"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="848594" y="5798317"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>タックル　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="283" name="正方形/長方形 282"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="821531" y="4536279"/>
+            <a:ext cx="2500313" cy="1143000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>[</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>主人公</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>キュウビに交代！</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>[</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>キュウビ：ファイア</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>キュウビに</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>のダメージ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>　　 ▼</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="284" name="正方形/長方形 283"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1703462" y="5798317"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ねちょり　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="285" name="正方形/長方形 284"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2558330" y="5798317"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>　　交代</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="286" name="正方形/長方形 285"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="846212" y="6200748"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>なきごえ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>12</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="287" name="正方形/長方形 286"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1701080" y="6200748"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>小型化　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="288" name="正方形/長方形 287"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2555948" y="6200748"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>　　にげる</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>615999</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="294" name="図 293"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="9810750"/>
+          <a:ext cx="1163687" cy="857249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>607220</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47627</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="295" name="正方形/長方形 294"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5441158" y="9858375"/>
+          <a:ext cx="821532" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キュウビ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>607219</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>178592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>235719</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>154777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="296" name="正方形/長方形 295"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5441157" y="10001248"/>
+          <a:ext cx="1009625" cy="511967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lv</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>80</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> / 90</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>63453</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="297" name="グループ化 296"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4143375" y="14287500"/>
+          <a:ext cx="2762250" cy="5778453"/>
+          <a:chOff x="690563" y="1452557"/>
+          <a:chExt cx="2762250" cy="5778453"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="298" name="図 297"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="2068" t="377" r="1770"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="690563" y="1452557"/>
+            <a:ext cx="2762250" cy="5778453"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="299" name="図 298"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="797718" y="1904999"/>
+            <a:ext cx="2536031" cy="2536030"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="300" name="図 299"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="888188" y="3431343"/>
+            <a:ext cx="914437" cy="914437"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="301" name="正方形/長方形 300"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1809750" y="3571873"/>
+            <a:ext cx="821532" cy="238124"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>スライム</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="302" name="正方形/長方形 301"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1809750" y="3714746"/>
+            <a:ext cx="1131094" cy="511967"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Lv</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>HP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>100 / 100</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="303" name="正方形/長方形 302"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="848594" y="5798317"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>タックル　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="304" name="正方形/長方形 303"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="821531" y="4536279"/>
+            <a:ext cx="2500313" cy="1143000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>吸収を覚えそうだ！</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>どの技を忘れますか？</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="305" name="正方形/長方形 304"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1703462" y="5798317"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ねちょり　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="306" name="正方形/長方形 305"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2558330" y="5798317"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>　　交代</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="307" name="正方形/長方形 306"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="846212" y="6200748"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>なきごえ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>12</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="308" name="正方形/長方形 307"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1701080" y="6200748"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>小型化　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="309" name="正方形/長方形 308"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2555948" y="6200748"/>
+            <a:ext cx="779318" cy="309562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>　　にげる</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>97634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>515860</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>83342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="310" name="正方形/長方形 309"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4345781" y="14920915"/>
+          <a:ext cx="2385142" cy="4093365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200028</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>98210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>513482</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>92305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="311" name="正方形/長方形 310"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343403" y="14921491"/>
+          <a:ext cx="2385142" cy="708470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　タックル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　攻撃型　威力：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>30</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>5/10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>197647</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>95831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>511101</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>89926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="312" name="正方形/長方形 311"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4341022" y="15633487"/>
+          <a:ext cx="2385142" cy="708470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　ねちょり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　補助型　威力：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> /10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　相手の素早さを下げる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>207173</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>93454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>520627</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>87549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="313" name="正方形/長方形 312"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4350548" y="16345485"/>
+          <a:ext cx="2385142" cy="708470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　なきごえ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　補助型　威力：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>12/20</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　相手の攻撃力を下げる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>204793</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>79171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>518247</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>73266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="314" name="正方形/長方形 313"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4348168" y="17045577"/>
+          <a:ext cx="2385142" cy="708470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　小型化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　補助型　威力：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2/10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　自分の素早さを上げる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202412</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>76791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>515866</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>70886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="315" name="正方形/長方形 314"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4345787" y="17757572"/>
+          <a:ext cx="2385142" cy="708470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　のしかかり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　攻撃型　威力：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>40</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>10/10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　ターン中、たまに相手が行動できなくなる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168666</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>16670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>515377</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="316" name="正方形/長方形 315"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5002604" y="18590420"/>
+          <a:ext cx="1037273" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>決定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247652</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>2954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>389537</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>149330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="318" name="円/楕円 317"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391027" y="15183423"/>
+          <a:ext cx="141885" cy="146376"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247652</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>389537</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>146948</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="319" name="円/楕円 318"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391027" y="15895416"/>
+          <a:ext cx="141885" cy="146376"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247652</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>176784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>389537</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>144566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="322" name="円/楕円 321"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391027" y="16607409"/>
+          <a:ext cx="141885" cy="146376"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247652</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>174402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>389537</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>142184</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="323" name="円/楕円 322"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391027" y="17319402"/>
+          <a:ext cx="141885" cy="146376"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247652</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>172020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>389537</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>139802</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="324" name="円/楕円 323"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391027" y="18031395"/>
+          <a:ext cx="141885" cy="146376"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>●</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17925,11 +22565,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q153"/>
+  <dimension ref="B2:Q225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17945,257 +22583,293 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="Q9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="Q11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.15">
       <c r="Q13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
       <c r="Q15" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q16" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="17:17" x14ac:dyDescent="0.15">
       <c r="Q27" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.15">
       <c r="Q33" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.15">
       <c r="Q34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.15">
       <c r="Q35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.15">
       <c r="Q36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="M44" s="1" t="s">
-        <v>34</v>
+      <c r="G43" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="G46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>36</v>
+      <c r="L46" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="G47" s="1" t="s">
-        <v>13</v>
+      <c r="L47" s="1" t="s">
+        <v>12</v>
       </c>
-      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="G49" s="1" t="s">
-        <v>14</v>
+    <row r="49" spans="12:16" x14ac:dyDescent="0.15">
+      <c r="L49" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="M50" s="2"/>
+    <row r="50" spans="12:16" x14ac:dyDescent="0.15">
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="G51" s="1" t="s">
-        <v>33</v>
+    <row r="51" spans="12:16" x14ac:dyDescent="0.15">
+      <c r="L51" s="1" t="s">
+        <v>30</v>
       </c>
-      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="M52" s="2"/>
+    <row r="52" spans="12:16" x14ac:dyDescent="0.15">
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="M53" s="2"/>
+    <row r="53" spans="12:16" x14ac:dyDescent="0.15">
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="G54" s="1" t="s">
-        <v>15</v>
+    <row r="54" spans="12:16" x14ac:dyDescent="0.15">
+      <c r="L54" s="1" t="s">
+        <v>14</v>
       </c>
-      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="G55" s="1" t="s">
-        <v>16</v>
+    <row r="55" spans="12:16" x14ac:dyDescent="0.15">
+      <c r="L55" s="1" t="s">
+        <v>15</v>
       </c>
-      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="M56" s="2"/>
+    <row r="56" spans="12:16" x14ac:dyDescent="0.15">
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="G57" s="1" t="s">
-        <v>19</v>
+    <row r="57" spans="12:16" x14ac:dyDescent="0.15">
+      <c r="L57" s="1" t="s">
+        <v>18</v>
       </c>
-      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="7:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="12:16" x14ac:dyDescent="0.15">
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="7:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="12:16" x14ac:dyDescent="0.15">
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="7:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="12:16" x14ac:dyDescent="0.15">
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="7:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="12:16" x14ac:dyDescent="0.15">
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="7:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="12:16" x14ac:dyDescent="0.15">
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B80" s="1" t="s">
-        <v>20</v>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B79" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L81" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L82" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L83" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L84" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L85" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L88" s="3"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B115" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L117" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L119" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L121" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L84" s="1" t="s">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L122" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L86" s="1" t="s">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L124" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L87" s="1" t="s">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L126" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L89" s="1" t="s">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B151" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="91" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L91" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B116" s="1" t="s">
+      <c r="L151" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G116" s="1" t="s">
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B188" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L116" s="1" t="s">
-        <v>29</v>
+      <c r="G188" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B153" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>35</v>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B225" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/モンスターファンタジア仕様書.xlsx
+++ b/モンスターファンタジア仕様書.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>■コンセプト</t>
     <phoneticPr fontId="1"/>
@@ -325,25 +325,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>休憩所はお金を消費させる。一律100G</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジョ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カネ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イチリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パーティで行えること</t>
     <rPh sb="5" eb="6">
       <t>オコナ</t>
@@ -595,6 +576,39 @@
     </rPh>
     <rPh sb="41" eb="43">
       <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩後</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩後画面押下⇒マップへ</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配合</t>
+    <rPh sb="0" eb="2">
+      <t>ハイゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7987,99 +8001,6 @@
             </a:rPr>
             <a:t>配合</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>122039</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>439935</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>116682</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="正方形/長方形 148"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5646539" y="15594807"/>
-          <a:ext cx="1008459" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>お金：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>1000G</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -22275,6 +22196,2006 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>63453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="279" name="図 278"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2068" t="377" r="1770"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="690563" y="40362188"/>
+          <a:ext cx="2762250" cy="5778453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="317" name="図 316"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833439" y="41028938"/>
+          <a:ext cx="2440779" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255445</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>102393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="325" name="正方形/長方形 324"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857252" y="44619862"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パーティ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>307184</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>395939</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>102393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="328" name="正方形/長方形 327"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1688309" y="44619862"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>休憩所</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>57005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>166834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="329" name="正方形/長方形 328"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="985839" y="41133568"/>
+          <a:ext cx="2193130" cy="288422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>フィラタウン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>202405</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>83341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>426280</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>104809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="330" name="図 329"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="892968" y="41695685"/>
+          <a:ext cx="914437" cy="914437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>388164</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>35</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>519133</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>59566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="331" name="正方形/長方形 330"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1769289" y="41790973"/>
+          <a:ext cx="821532" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>スライム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>411975</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>154814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="332" name="正方形/長方形 331"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1793100" y="41945752"/>
+          <a:ext cx="1373963" cy="559562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Lv2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>100 / 100</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536433</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>102393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="333" name="正方形/長方形 332"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2519365" y="44619862"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>探索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255445</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>173829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="334" name="正方形/長方形 333"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857252" y="45048487"/>
+          <a:ext cx="779318" cy="309561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>配合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>307184</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>395939</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>173829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="336" name="正方形/長方形 335"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1688309" y="45048487"/>
+          <a:ext cx="779318" cy="309561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ボスバトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536433</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>173829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="337" name="正方形/長方形 336"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2519365" y="45048487"/>
+          <a:ext cx="779318" cy="309561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>256993</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>9783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>389510</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>14024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="338" name="正方形/長方形 337"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="947556" y="41979314"/>
+          <a:ext cx="2204204" cy="897210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　あら！こんにちは！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　皆さんお疲れですね！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　どうぞお休みください！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>309565</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>71420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>339023</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>83326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="75043" b="49653"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000128" y="42040951"/>
+          <a:ext cx="720020" cy="726281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>63453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="365" name="図 364"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2068" t="377" r="1770"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="40362188"/>
+          <a:ext cx="2762250" cy="5778453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>511967</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="366" name="図 365"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286251" y="41028938"/>
+          <a:ext cx="2440779" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>255444</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>102393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="367" name="正方形/長方形 366"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4310064" y="44619862"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パーティ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>307183</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395939</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>102393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="368" name="正方形/長方形 367"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5141121" y="44619862"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>休憩所</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>57005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>166834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="369" name="正方形/長方形 368"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438651" y="41133568"/>
+          <a:ext cx="2193130" cy="288422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>フィラタウン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>536432</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>102393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="370" name="正方形/長方形 369"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972177" y="44619862"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>探索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>255444</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>173829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="371" name="正方形/長方形 370"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4310064" y="45048487"/>
+          <a:ext cx="779318" cy="309561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>配合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>307183</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395939</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>173829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="372" name="正方形/長方形 371"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5141121" y="45048487"/>
+          <a:ext cx="779318" cy="309561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ボスバトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>536432</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>173829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="373" name="正方形/長方形 372"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972177" y="45048487"/>
+          <a:ext cx="779318" cy="309561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>199955</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>423829</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>102431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="416" name="図 415"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343330" y="41693307"/>
+          <a:ext cx="914437" cy="914437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>385713</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>176251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>516683</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>57188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="417" name="正方形/長方形 416"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5219651" y="41788595"/>
+          <a:ext cx="821532" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>スライム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>256993</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>9783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>389509</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>14024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="374" name="正方形/長方形 373"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400368" y="41979314"/>
+          <a:ext cx="2204204" cy="897210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　元気いっぱいですね！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　いってらっしゃい！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　お気をつけて！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>309565</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>95232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>339022</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>107138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="375" name="図 374"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="51173" r="75043" b="-1520"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4452940" y="42064763"/>
+          <a:ext cx="720020" cy="726281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22565,9 +24486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q225"/>
+  <dimension ref="B2:Q262"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B264" sqref="B264"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -22583,7 +24506,7 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
@@ -22599,7 +24522,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
@@ -22619,12 +24542,12 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
       <c r="Q15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.15">
       <c r="Q16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="17:17" x14ac:dyDescent="0.15">
@@ -22657,7 +24580,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
@@ -22696,7 +24619,7 @@
     </row>
     <row r="51" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L51" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -22773,32 +24696,32 @@
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L81" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L82" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L83" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L84" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L85" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="12:12" x14ac:dyDescent="0.15">
@@ -22812,10 +24735,10 @@
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B115" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.15">
@@ -22823,53 +24746,61 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="L119" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.15">
       <c r="L121" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.15">
       <c r="L122" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.15">
       <c r="L124" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.15">
       <c r="L126" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B151" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="L151" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="L151" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B188" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B225" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L227" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B262" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/モンスターファンタジア仕様書.xlsx
+++ b/モンスターファンタジア仕様書.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>■コンセプト</t>
     <phoneticPr fontId="1"/>
@@ -606,9 +606,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>配合</t>
+    <t>ボスバトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスバトル後</t>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスバトル⇒バトル画面へ</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利することで次の街に行ける</t>
     <rPh sb="0" eb="2">
-      <t>ハイゴウ</t>
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -24196,6 +24223,1944 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>63453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="335" name="図 334"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2068" t="377" r="1770"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="690563" y="46970156"/>
+          <a:ext cx="2762250" cy="5778453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="339" name="図 338"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833439" y="47636906"/>
+          <a:ext cx="2440779" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>150017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255445</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>102392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="364" name="正方形/長方形 363"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857252" y="51227830"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パーティ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>307184</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>150017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>395939</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>102392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="418" name="正方形/長方形 417"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1688309" y="51227830"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>休憩所</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>57005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>166833</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="419" name="正方形/長方形 418"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="985839" y="47741536"/>
+          <a:ext cx="2193130" cy="288422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>フィラタウン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>388164</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>35</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>519133</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>59565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="420" name="正方形/長方形 419"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1769289" y="48398941"/>
+          <a:ext cx="821532" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>スライム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>411975</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>154814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="421" name="正方形/長方形 420"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1793100" y="48553720"/>
+          <a:ext cx="1373963" cy="559562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Lv2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>100 / 100</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>150017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536433</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>102392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="422" name="正方形/長方形 421"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2519365" y="51227830"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>探索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255445</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>173828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="423" name="正方形/長方形 422"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857252" y="51656455"/>
+          <a:ext cx="779318" cy="309561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>配合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>307184</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>395939</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>173828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="424" name="正方形/長方形 423"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1688309" y="51656455"/>
+          <a:ext cx="779318" cy="309561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ボスバトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536433</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>173828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="425" name="正方形/長方形 424"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2519365" y="51656455"/>
+          <a:ext cx="779318" cy="309561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>256993</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>9782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>389510</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>14023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="426" name="正方形/長方形 425"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="947556" y="48587282"/>
+          <a:ext cx="2204204" cy="897210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　私に挑んでくるなんて</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　中々の度胸ね！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　いいわ！かかってきなさい！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>321469</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>83345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="75043" b="50087"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000126" y="48672751"/>
+          <a:ext cx="702468" cy="702469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>63453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="428" name="図 427"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2068" t="377" r="1770"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="46970156"/>
+          <a:ext cx="2762250" cy="5778453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>511967</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="429" name="図 428"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286251" y="47636906"/>
+          <a:ext cx="2440779" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>150017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>255444</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>102392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="430" name="正方形/長方形 429"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4310064" y="51227830"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パーティ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>307183</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>150017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395939</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>102392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="431" name="正方形/長方形 430"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5141121" y="51227830"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>休憩所</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>57005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>166833</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="432" name="正方形/長方形 431"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438651" y="47741536"/>
+          <a:ext cx="2193130" cy="288422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>フィラタウン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388163</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>35</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>519133</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>59565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="433" name="正方形/長方形 432"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5222101" y="48398941"/>
+          <a:ext cx="821532" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>スライム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>150017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>536432</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>102392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="434" name="正方形/長方形 433"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972177" y="51227830"/>
+          <a:ext cx="779318" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>探索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>255444</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>173828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="435" name="正方形/長方形 434"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4310064" y="51656455"/>
+          <a:ext cx="779318" cy="309561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>配合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>307183</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395939</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>173828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="436" name="正方形/長方形 435"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5141121" y="51656455"/>
+          <a:ext cx="779318" cy="309561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ボスバトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>536432</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>173828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="437" name="正方形/長方形 436"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972177" y="51656455"/>
+          <a:ext cx="779318" cy="309561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>256993</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>9782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>389509</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>14023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="438" name="正方形/長方形 437"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400368" y="48587282"/>
+          <a:ext cx="2204204" cy="897210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　ふ、ふん・・・！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　調子が悪かっただけよ！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　とっとと次の街でも</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　どこでもいきなさいよ！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>321468</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>83345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="439" name="図 438"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="26649" t="49067" r="48394" b="1020"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4452938" y="48672751"/>
+          <a:ext cx="702468" cy="702469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24486,10 +26451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q262"/>
+  <dimension ref="B2:Q266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B264" sqref="B264"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L268" sqref="L268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -24798,9 +26763,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B262" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="264" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L264" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="266" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L266" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/モンスターファンタジア仕様書.xlsx
+++ b/モンスターファンタジア仕様書.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>■コンセプト</t>
     <phoneticPr fontId="1"/>
@@ -639,6 +639,62 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>フィラタウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャナタウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピアタウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トキタウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上述参照</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウジュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リュグタウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レジェタウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンピオン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ボスのアイコン</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配合</t>
+    <rPh sb="0" eb="2">
+      <t>ハイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -683,20 +739,106 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -705,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,6 +862,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -26161,6 +26330,314 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7615238" y="55364063"/>
+          <a:ext cx="2743200" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11068050" y="55364063"/>
+          <a:ext cx="2743200" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="53578125"/>
+          <a:ext cx="2743200" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="709613" y="55364063"/>
+          <a:ext cx="2743200" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7615238" y="53578125"/>
+          <a:ext cx="2743200" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="55364063"/>
+          <a:ext cx="2743200" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="427" name="図 426"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="690563" y="57864375"/>
+          <a:ext cx="2743200" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26451,10 +26928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q266"/>
+  <dimension ref="B2:T324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L268" sqref="L268"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -26781,6 +27258,478 @@
         <v>49</v>
       </c>
     </row>
+    <row r="298" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B298" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="299" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B299" s="5"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+      <c r="F299" s="6"/>
+      <c r="G299" s="6"/>
+      <c r="H299" s="6"/>
+      <c r="I299" s="6"/>
+      <c r="J299" s="6"/>
+      <c r="K299" s="6"/>
+      <c r="L299" s="6"/>
+      <c r="M299" s="6"/>
+      <c r="N299" s="6"/>
+      <c r="O299" s="6"/>
+      <c r="P299" s="6"/>
+      <c r="Q299" s="6"/>
+      <c r="R299" s="6"/>
+      <c r="S299" s="6"/>
+      <c r="T299" s="7"/>
+    </row>
+    <row r="300" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B300" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C300" s="9"/>
+      <c r="D300" s="9"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="9"/>
+      <c r="G300" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H300" s="9"/>
+      <c r="I300" s="9"/>
+      <c r="J300" s="9"/>
+      <c r="K300" s="9"/>
+      <c r="L300" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M300" s="9"/>
+      <c r="N300" s="9"/>
+      <c r="O300" s="9"/>
+      <c r="P300" s="9"/>
+      <c r="Q300" s="9"/>
+      <c r="R300" s="9"/>
+      <c r="S300" s="9"/>
+      <c r="T300" s="10"/>
+    </row>
+    <row r="301" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B301" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C301" s="9"/>
+      <c r="D301" s="9"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="9"/>
+      <c r="G301" s="9"/>
+      <c r="H301" s="9"/>
+      <c r="I301" s="9"/>
+      <c r="J301" s="9"/>
+      <c r="K301" s="9"/>
+      <c r="L301" s="9"/>
+      <c r="M301" s="9"/>
+      <c r="N301" s="9"/>
+      <c r="O301" s="9"/>
+      <c r="P301" s="9"/>
+      <c r="Q301" s="9"/>
+      <c r="R301" s="9"/>
+      <c r="S301" s="9"/>
+      <c r="T301" s="10"/>
+    </row>
+    <row r="302" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B302" s="8"/>
+      <c r="C302" s="9"/>
+      <c r="D302" s="9"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="9"/>
+      <c r="G302" s="9"/>
+      <c r="H302" s="9"/>
+      <c r="I302" s="9"/>
+      <c r="J302" s="9"/>
+      <c r="K302" s="9"/>
+      <c r="L302" s="9"/>
+      <c r="M302" s="9"/>
+      <c r="N302" s="9"/>
+      <c r="O302" s="9"/>
+      <c r="P302" s="9"/>
+      <c r="Q302" s="9"/>
+      <c r="R302" s="9"/>
+      <c r="S302" s="9"/>
+      <c r="T302" s="10"/>
+    </row>
+    <row r="303" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B303" s="8"/>
+      <c r="C303" s="9"/>
+      <c r="D303" s="9"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="9"/>
+      <c r="G303" s="9"/>
+      <c r="H303" s="9"/>
+      <c r="I303" s="9"/>
+      <c r="J303" s="9"/>
+      <c r="K303" s="9"/>
+      <c r="L303" s="9"/>
+      <c r="M303" s="9"/>
+      <c r="N303" s="9"/>
+      <c r="O303" s="9"/>
+      <c r="P303" s="9"/>
+      <c r="Q303" s="9"/>
+      <c r="R303" s="9"/>
+      <c r="S303" s="9"/>
+      <c r="T303" s="10"/>
+    </row>
+    <row r="304" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B304" s="8"/>
+      <c r="C304" s="9"/>
+      <c r="D304" s="9"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="9"/>
+      <c r="G304" s="9"/>
+      <c r="H304" s="9"/>
+      <c r="I304" s="9"/>
+      <c r="J304" s="9"/>
+      <c r="K304" s="9"/>
+      <c r="L304" s="9"/>
+      <c r="M304" s="9"/>
+      <c r="N304" s="9"/>
+      <c r="O304" s="9"/>
+      <c r="P304" s="9"/>
+      <c r="Q304" s="9"/>
+      <c r="R304" s="9"/>
+      <c r="S304" s="9"/>
+      <c r="T304" s="10"/>
+    </row>
+    <row r="305" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B305" s="8"/>
+      <c r="C305" s="9"/>
+      <c r="D305" s="9"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="9"/>
+      <c r="G305" s="9"/>
+      <c r="H305" s="9"/>
+      <c r="I305" s="9"/>
+      <c r="J305" s="9"/>
+      <c r="K305" s="9"/>
+      <c r="L305" s="9"/>
+      <c r="M305" s="9"/>
+      <c r="N305" s="9"/>
+      <c r="O305" s="9"/>
+      <c r="P305" s="9"/>
+      <c r="Q305" s="9"/>
+      <c r="R305" s="9"/>
+      <c r="S305" s="9"/>
+      <c r="T305" s="10"/>
+    </row>
+    <row r="306" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B306" s="8"/>
+      <c r="C306" s="9"/>
+      <c r="D306" s="9"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="9"/>
+      <c r="G306" s="9"/>
+      <c r="H306" s="9"/>
+      <c r="I306" s="9"/>
+      <c r="J306" s="9"/>
+      <c r="K306" s="9"/>
+      <c r="L306" s="9"/>
+      <c r="M306" s="9"/>
+      <c r="N306" s="9"/>
+      <c r="O306" s="9"/>
+      <c r="P306" s="9"/>
+      <c r="Q306" s="9"/>
+      <c r="R306" s="9"/>
+      <c r="S306" s="9"/>
+      <c r="T306" s="10"/>
+    </row>
+    <row r="307" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B307" s="8"/>
+      <c r="C307" s="9"/>
+      <c r="D307" s="9"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="9"/>
+      <c r="G307" s="9"/>
+      <c r="H307" s="9"/>
+      <c r="I307" s="9"/>
+      <c r="J307" s="9"/>
+      <c r="K307" s="9"/>
+      <c r="L307" s="9"/>
+      <c r="M307" s="9"/>
+      <c r="N307" s="9"/>
+      <c r="O307" s="9"/>
+      <c r="P307" s="9"/>
+      <c r="Q307" s="9"/>
+      <c r="R307" s="9"/>
+      <c r="S307" s="9"/>
+      <c r="T307" s="10"/>
+    </row>
+    <row r="308" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B308" s="8"/>
+      <c r="C308" s="9"/>
+      <c r="D308" s="9"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="9"/>
+      <c r="G308" s="9"/>
+      <c r="H308" s="9"/>
+      <c r="I308" s="9"/>
+      <c r="J308" s="9"/>
+      <c r="K308" s="9"/>
+      <c r="L308" s="9"/>
+      <c r="M308" s="9"/>
+      <c r="N308" s="9"/>
+      <c r="O308" s="9"/>
+      <c r="P308" s="9"/>
+      <c r="Q308" s="9"/>
+      <c r="R308" s="9"/>
+      <c r="S308" s="9"/>
+      <c r="T308" s="10"/>
+    </row>
+    <row r="309" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B309" s="8"/>
+      <c r="C309" s="9"/>
+      <c r="D309" s="9"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="9"/>
+      <c r="G309" s="9"/>
+      <c r="H309" s="9"/>
+      <c r="I309" s="9"/>
+      <c r="J309" s="9"/>
+      <c r="K309" s="9"/>
+      <c r="L309" s="9"/>
+      <c r="M309" s="9"/>
+      <c r="N309" s="9"/>
+      <c r="O309" s="9"/>
+      <c r="P309" s="9"/>
+      <c r="Q309" s="9"/>
+      <c r="R309" s="9"/>
+      <c r="S309" s="9"/>
+      <c r="T309" s="10"/>
+    </row>
+    <row r="310" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B310" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C310" s="9"/>
+      <c r="D310" s="9"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="9"/>
+      <c r="G310" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H310" s="9"/>
+      <c r="I310" s="9"/>
+      <c r="J310" s="9"/>
+      <c r="K310" s="9"/>
+      <c r="L310" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M310" s="9"/>
+      <c r="N310" s="9"/>
+      <c r="O310" s="9"/>
+      <c r="P310" s="9"/>
+      <c r="Q310" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R310" s="9"/>
+      <c r="S310" s="9"/>
+      <c r="T310" s="10"/>
+    </row>
+    <row r="311" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B311" s="8"/>
+      <c r="C311" s="9"/>
+      <c r="D311" s="9"/>
+      <c r="E311" s="9"/>
+      <c r="F311" s="9"/>
+      <c r="G311" s="9"/>
+      <c r="H311" s="9"/>
+      <c r="I311" s="9"/>
+      <c r="J311" s="9"/>
+      <c r="K311" s="9"/>
+      <c r="L311" s="9"/>
+      <c r="M311" s="9"/>
+      <c r="N311" s="9"/>
+      <c r="O311" s="9"/>
+      <c r="P311" s="9"/>
+      <c r="Q311" s="9"/>
+      <c r="R311" s="9"/>
+      <c r="S311" s="9"/>
+      <c r="T311" s="10"/>
+    </row>
+    <row r="312" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B312" s="8"/>
+      <c r="C312" s="9"/>
+      <c r="D312" s="9"/>
+      <c r="E312" s="9"/>
+      <c r="F312" s="9"/>
+      <c r="G312" s="9"/>
+      <c r="H312" s="9"/>
+      <c r="I312" s="9"/>
+      <c r="J312" s="9"/>
+      <c r="K312" s="9"/>
+      <c r="L312" s="9"/>
+      <c r="M312" s="9"/>
+      <c r="N312" s="9"/>
+      <c r="O312" s="9"/>
+      <c r="P312" s="9"/>
+      <c r="Q312" s="9"/>
+      <c r="R312" s="9"/>
+      <c r="S312" s="9"/>
+      <c r="T312" s="10"/>
+    </row>
+    <row r="313" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B313" s="8"/>
+      <c r="C313" s="9"/>
+      <c r="D313" s="9"/>
+      <c r="E313" s="9"/>
+      <c r="F313" s="9"/>
+      <c r="G313" s="9"/>
+      <c r="H313" s="9"/>
+      <c r="I313" s="9"/>
+      <c r="J313" s="9"/>
+      <c r="K313" s="9"/>
+      <c r="L313" s="9"/>
+      <c r="M313" s="9"/>
+      <c r="N313" s="9"/>
+      <c r="O313" s="9"/>
+      <c r="P313" s="9"/>
+      <c r="Q313" s="9"/>
+      <c r="R313" s="9"/>
+      <c r="S313" s="9"/>
+      <c r="T313" s="10"/>
+    </row>
+    <row r="314" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B314" s="8"/>
+      <c r="C314" s="9"/>
+      <c r="D314" s="9"/>
+      <c r="E314" s="9"/>
+      <c r="F314" s="9"/>
+      <c r="G314" s="9"/>
+      <c r="H314" s="9"/>
+      <c r="I314" s="9"/>
+      <c r="J314" s="9"/>
+      <c r="K314" s="9"/>
+      <c r="L314" s="9"/>
+      <c r="M314" s="9"/>
+      <c r="N314" s="9"/>
+      <c r="O314" s="9"/>
+      <c r="P314" s="9"/>
+      <c r="Q314" s="9"/>
+      <c r="R314" s="9"/>
+      <c r="S314" s="9"/>
+      <c r="T314" s="10"/>
+    </row>
+    <row r="315" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B315" s="8"/>
+      <c r="C315" s="9"/>
+      <c r="D315" s="9"/>
+      <c r="E315" s="9"/>
+      <c r="F315" s="9"/>
+      <c r="G315" s="9"/>
+      <c r="H315" s="9"/>
+      <c r="I315" s="9"/>
+      <c r="J315" s="9"/>
+      <c r="K315" s="9"/>
+      <c r="L315" s="9"/>
+      <c r="M315" s="9"/>
+      <c r="N315" s="9"/>
+      <c r="O315" s="9"/>
+      <c r="P315" s="9"/>
+      <c r="Q315" s="9"/>
+      <c r="R315" s="9"/>
+      <c r="S315" s="9"/>
+      <c r="T315" s="10"/>
+    </row>
+    <row r="316" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B316" s="8"/>
+      <c r="C316" s="9"/>
+      <c r="D316" s="9"/>
+      <c r="E316" s="9"/>
+      <c r="F316" s="9"/>
+      <c r="G316" s="9"/>
+      <c r="H316" s="9"/>
+      <c r="I316" s="9"/>
+      <c r="J316" s="9"/>
+      <c r="K316" s="9"/>
+      <c r="L316" s="9"/>
+      <c r="M316" s="9"/>
+      <c r="N316" s="9"/>
+      <c r="O316" s="9"/>
+      <c r="P316" s="9"/>
+      <c r="Q316" s="9"/>
+      <c r="R316" s="9"/>
+      <c r="S316" s="9"/>
+      <c r="T316" s="10"/>
+    </row>
+    <row r="317" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B317" s="8"/>
+      <c r="C317" s="9"/>
+      <c r="D317" s="9"/>
+      <c r="E317" s="9"/>
+      <c r="F317" s="9"/>
+      <c r="G317" s="9"/>
+      <c r="H317" s="9"/>
+      <c r="I317" s="9"/>
+      <c r="J317" s="9"/>
+      <c r="K317" s="9"/>
+      <c r="L317" s="9"/>
+      <c r="M317" s="9"/>
+      <c r="N317" s="9"/>
+      <c r="O317" s="9"/>
+      <c r="P317" s="9"/>
+      <c r="Q317" s="9"/>
+      <c r="R317" s="9"/>
+      <c r="S317" s="9"/>
+      <c r="T317" s="10"/>
+    </row>
+    <row r="318" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B318" s="8"/>
+      <c r="C318" s="9"/>
+      <c r="D318" s="9"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="9"/>
+      <c r="G318" s="9"/>
+      <c r="H318" s="9"/>
+      <c r="I318" s="9"/>
+      <c r="J318" s="9"/>
+      <c r="K318" s="9"/>
+      <c r="L318" s="9"/>
+      <c r="M318" s="9"/>
+      <c r="N318" s="9"/>
+      <c r="O318" s="9"/>
+      <c r="P318" s="9"/>
+      <c r="Q318" s="9"/>
+      <c r="R318" s="9"/>
+      <c r="S318" s="9"/>
+      <c r="T318" s="10"/>
+    </row>
+    <row r="319" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B319" s="11"/>
+      <c r="C319" s="12"/>
+      <c r="D319" s="12"/>
+      <c r="E319" s="12"/>
+      <c r="F319" s="12"/>
+      <c r="G319" s="12"/>
+      <c r="H319" s="12"/>
+      <c r="I319" s="12"/>
+      <c r="J319" s="12"/>
+      <c r="K319" s="12"/>
+      <c r="L319" s="12"/>
+      <c r="M319" s="12"/>
+      <c r="N319" s="12"/>
+      <c r="O319" s="12"/>
+      <c r="P319" s="12"/>
+      <c r="Q319" s="12"/>
+      <c r="R319" s="12"/>
+      <c r="S319" s="12"/>
+      <c r="T319" s="13"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B322" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B324" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
